--- a/学習ボランティア2月シフト.xlsx
+++ b/学習ボランティア2月シフト.xlsx
@@ -675,7 +675,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>〇</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>〇</t>
+          <t>×</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>〇</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>〇</t>
+          <t>×</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
